--- a/KOMPEGE/block 22/from web/22.7_20192.xlsx
+++ b/KOMPEGE/block 22/from web/22.7_20192.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 22\from web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D30ACF-0240-48E8-A18B-E6AC7092C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B47C2F1-30AE-4BCB-8CDC-8C4B212410F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="4950" windowWidth="23715" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2940" windowWidth="33825" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +385,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +482,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
-        <f t="shared" ref="F3:F17" si="4">VLOOKUP(C4,$A:$I,9,0)</f>
+        <f t="shared" ref="F4:F17" si="4">VLOOKUP(C4,$A:$I,9,0)</f>
         <v>5</v>
       </c>
       <c r="G4" s="5">
